--- a/prep_and_checklists/Apple TV  /PREPLIST_Apple TV  _12-26-2025_0.xlsx
+++ b/prep_and_checklists/Apple TV  /PREPLIST_Apple TV  _12-26-2025_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Apple TV  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A96814-15B7-5840-BF87-0DE1D4EDC854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E44DD3-4BD1-6A4A-9C67-7ABC0293B627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>Canapes</t>
   </si>
@@ -330,6 +330,24 @@
   </si>
   <si>
     <t>Location: East Room</t>
+  </si>
+  <si>
+    <t>Green Hummus</t>
+  </si>
+  <si>
+    <t>cut /fry lavash planks</t>
+  </si>
+  <si>
+    <t>100 pcs</t>
+  </si>
+  <si>
+    <t>fava bean hummus</t>
+  </si>
+  <si>
+    <t>pickled holland chili</t>
+  </si>
+  <si>
+    <t>pull / make dukkah</t>
   </si>
 </sst>
 </file>
@@ -774,10 +792,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
@@ -1094,6 +1112,46 @@
       </c>
       <c r="B46" s="3" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
